--- a/Dimagi/Detailed Form Contents.xlsx
+++ b/Dimagi/Detailed Form Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DC03AEC-B6AF-4756-9B63-CD07F0AAE4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4D8AE0-FA71-419A-B807-FB9A4E14FA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="River Prospection Forms - Simpl" sheetId="1" r:id="rId1"/>
@@ -1152,6 +1152,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">This is the instruction for this form telling the user to </t>
     </r>
@@ -1161,6 +1162,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>only</t>
     </r>
@@ -1169,6 +1171,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> use this form if they are nit able to find their river in the list of already prospected rivers</t>
     </r>
@@ -2541,18 +2544,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2560,12 +2566,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2573,17 +2581,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2591,23 +2602,27 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3090,7 +3105,9 @@
   </sheetPr>
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3139,7 +3156,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3157,7 +3174,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -3173,7 +3190,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -3191,7 +3208,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -3207,7 +3224,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -3223,7 +3240,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -3241,7 +3258,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -3255,7 +3272,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -3273,7 +3290,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -3289,7 +3306,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -3307,7 +3324,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -3325,7 +3342,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -3352,7 +3369,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
@@ -3369,7 +3386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -3384,7 +3401,7 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>56</v>
       </c>
@@ -3399,7 +3416,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
@@ -3414,7 +3431,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>59</v>
       </c>
@@ -3431,7 +3448,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>63</v>
       </c>
@@ -3448,7 +3465,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>66</v>
       </c>
@@ -3465,7 +3482,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>69</v>
       </c>
@@ -3482,7 +3499,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>73</v>
       </c>
@@ -3499,7 +3516,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>76</v>
       </c>
@@ -3514,7 +3531,7 @@
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>78</v>
       </c>
@@ -3529,7 +3546,7 @@
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>80</v>
       </c>
@@ -3544,7 +3561,7 @@
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>83</v>
       </c>
@@ -3561,7 +3578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>86</v>
       </c>
@@ -3578,7 +3595,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>89</v>
       </c>
@@ -3595,7 +3612,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>92</v>
       </c>
@@ -3612,7 +3629,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>96</v>
       </c>
@@ -3629,7 +3646,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>99</v>
       </c>
@@ -3646,7 +3663,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>102</v>
       </c>
@@ -3663,7 +3680,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>105</v>
       </c>
@@ -3678,7 +3695,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>108</v>
       </c>
@@ -3695,7 +3712,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>111</v>
       </c>
@@ -3712,126 +3729,126 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
       <c r="D50" s="10"/>
       <c r="E50" s="11"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
       <c r="D52" s="10"/>
       <c r="E52" s="11"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
       <c r="D53" s="10"/>
       <c r="E53" s="11"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
@@ -8950,7 +8967,7 @@
     <col min="6" max="6" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>282</v>
       </c>
@@ -8981,7 +8998,7 @@
       <c r="Z1" s="15"/>
       <c r="AA1" s="15"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -9082,7 +9099,7 @@
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>287</v>
       </c>
@@ -9121,7 +9138,7 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>290</v>
       </c>
@@ -9160,7 +9177,7 @@
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>293</v>
       </c>
@@ -9199,7 +9216,7 @@
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>296</v>
       </c>
@@ -9238,7 +9255,7 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>299</v>
       </c>
@@ -9277,7 +9294,7 @@
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>303</v>
       </c>
@@ -9316,7 +9333,7 @@
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>306</v>
       </c>
@@ -9355,7 +9372,7 @@
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>310</v>
       </c>
@@ -9394,7 +9411,7 @@
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>313</v>
       </c>
@@ -9433,7 +9450,7 @@
       <c r="Z13" s="15"/>
       <c r="AA13" s="15"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>316</v>
       </c>
@@ -9472,7 +9489,7 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>319</v>
       </c>
@@ -9509,7 +9526,7 @@
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>323</v>
       </c>
@@ -9546,7 +9563,7 @@
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>326</v>
       </c>
@@ -9587,7 +9604,7 @@
       <c r="Z17" s="15"/>
       <c r="AA17" s="15"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>330</v>
       </c>
@@ -9628,7 +9645,7 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="15"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>334</v>
       </c>
@@ -9665,7 +9682,7 @@
       <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>337</v>
       </c>
@@ -9702,7 +9719,7 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>340</v>
       </c>
@@ -9739,7 +9756,7 @@
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>343</v>
       </c>
@@ -9778,7 +9795,7 @@
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>346</v>
       </c>
@@ -9850,7 +9867,7 @@
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>352</v>
       </c>
@@ -9889,7 +9906,7 @@
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>5</v>
       </c>
@@ -9926,7 +9943,7 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="15"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>358</v>
       </c>
@@ -9963,7 +9980,7 @@
       <c r="Z27" s="15"/>
       <c r="AA27" s="15"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>361</v>
       </c>
@@ -10002,7 +10019,7 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>364</v>
       </c>
@@ -10041,7 +10058,7 @@
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>367</v>
       </c>
@@ -10080,7 +10097,7 @@
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>24</v>
       </c>
@@ -10119,7 +10136,7 @@
       <c r="Z31" s="15"/>
       <c r="AA31" s="15"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>50</v>
       </c>
@@ -10158,7 +10175,7 @@
       <c r="Z32" s="15"/>
       <c r="AA32" s="15"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>53</v>
       </c>
@@ -10197,7 +10214,7 @@
       <c r="Z33" s="15"/>
       <c r="AA33" s="15"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>56</v>
       </c>
@@ -10236,7 +10253,7 @@
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>375</v>
       </c>
@@ -10275,7 +10292,7 @@
       <c r="Z35" s="15"/>
       <c r="AA35" s="15"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>379</v>
       </c>
@@ -10314,7 +10331,7 @@
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
         <v>59</v>
       </c>
@@ -10349,7 +10366,7 @@
       <c r="Z37" s="15"/>
       <c r="AA37" s="15"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -10378,7 +10395,7 @@
       <c r="Z38" s="15"/>
       <c r="AA38" s="15"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -10407,7 +10424,7 @@
       <c r="Z39" s="15"/>
       <c r="AA39" s="15"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -10436,7 +10453,7 @@
       <c r="Z40" s="15"/>
       <c r="AA40" s="15"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -10465,7 +10482,7 @@
       <c r="Z41" s="15"/>
       <c r="AA41" s="15"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -10494,7 +10511,7 @@
       <c r="Z42" s="15"/>
       <c r="AA42" s="15"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -10523,7 +10540,7 @@
       <c r="Z43" s="15"/>
       <c r="AA43" s="15"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -10552,7 +10569,7 @@
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -10581,7 +10598,7 @@
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -10610,7 +10627,7 @@
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -10639,7 +10656,7 @@
       <c r="Z47" s="15"/>
       <c r="AA47" s="15"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -10668,7 +10685,7 @@
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -10697,7 +10714,7 @@
       <c r="Z49" s="15"/>
       <c r="AA49" s="15"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -10726,7 +10743,7 @@
       <c r="Z50" s="15"/>
       <c r="AA50" s="15"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -10755,7 +10772,7 @@
       <c r="Z51" s="15"/>
       <c r="AA51" s="15"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -10784,7 +10801,7 @@
       <c r="Z52" s="15"/>
       <c r="AA52" s="15"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -10813,7 +10830,7 @@
       <c r="Z53" s="15"/>
       <c r="AA53" s="15"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -41211,7 +41228,7 @@
       <c r="Z1" s="15"/>
       <c r="AA1" s="15"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -41312,7 +41329,7 @@
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>624</v>
       </c>
@@ -41351,7 +41368,7 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>287</v>
       </c>
@@ -41390,7 +41407,7 @@
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>290</v>
       </c>
@@ -41429,7 +41446,7 @@
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>293</v>
       </c>
@@ -41468,7 +41485,7 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>296</v>
       </c>
@@ -41507,7 +41524,7 @@
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>627</v>
       </c>
@@ -41546,7 +41563,7 @@
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>630</v>
       </c>
@@ -41585,7 +41602,7 @@
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>635</v>
       </c>
@@ -41624,7 +41641,7 @@
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>638</v>
       </c>
@@ -41663,7 +41680,7 @@
       <c r="Z13" s="15"/>
       <c r="AA13" s="15"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>641</v>
       </c>
@@ -41702,7 +41719,7 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>644</v>
       </c>
@@ -41741,7 +41758,7 @@
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>647</v>
       </c>
@@ -41782,7 +41799,7 @@
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
         <v>651</v>
       </c>
@@ -41821,7 +41838,7 @@
       <c r="Z17" s="15"/>
       <c r="AA17" s="15"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>655</v>
       </c>
@@ -41860,7 +41877,7 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="15"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>658</v>
       </c>
@@ -41899,7 +41916,7 @@
       <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>661</v>
       </c>
@@ -41936,7 +41953,7 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>664</v>
       </c>
@@ -41977,7 +41994,7 @@
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
         <v>668</v>
       </c>
@@ -42012,7 +42029,7 @@
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
         <v>670</v>
       </c>
@@ -42047,7 +42064,7 @@
       <c r="Z23" s="15"/>
       <c r="AA23" s="15"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
         <v>672</v>
       </c>
@@ -42082,7 +42099,7 @@
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="31" t="s">
         <v>674</v>
       </c>
@@ -42117,7 +42134,7 @@
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="31" t="s">
         <v>676</v>
       </c>
@@ -42152,7 +42169,7 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="15"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -42181,7 +42198,7 @@
       <c r="Z27" s="15"/>
       <c r="AA27" s="15"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -42210,7 +42227,7 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -42239,7 +42256,7 @@
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -42268,7 +42285,7 @@
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -42297,7 +42314,7 @@
       <c r="Z31" s="15"/>
       <c r="AA31" s="15"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -42326,7 +42343,7 @@
       <c r="Z32" s="15"/>
       <c r="AA32" s="15"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -42355,7 +42372,7 @@
       <c r="Z33" s="15"/>
       <c r="AA33" s="15"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -42384,7 +42401,7 @@
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -42413,7 +42430,7 @@
       <c r="Z35" s="15"/>
       <c r="AA35" s="15"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -42442,7 +42459,7 @@
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -42471,7 +42488,7 @@
       <c r="Z37" s="15"/>
       <c r="AA37" s="15"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -42500,7 +42517,7 @@
       <c r="Z38" s="15"/>
       <c r="AA38" s="15"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -42529,7 +42546,7 @@
       <c r="Z39" s="15"/>
       <c r="AA39" s="15"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -42558,7 +42575,7 @@
       <c r="Z40" s="15"/>
       <c r="AA40" s="15"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -42587,7 +42604,7 @@
       <c r="Z41" s="15"/>
       <c r="AA41" s="15"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -42616,7 +42633,7 @@
       <c r="Z42" s="15"/>
       <c r="AA42" s="15"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -42645,7 +42662,7 @@
       <c r="Z43" s="15"/>
       <c r="AA43" s="15"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -42674,7 +42691,7 @@
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -42703,7 +42720,7 @@
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -42732,7 +42749,7 @@
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -42761,7 +42778,7 @@
       <c r="Z47" s="15"/>
       <c r="AA47" s="15"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -42790,7 +42807,7 @@
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -42819,7 +42836,7 @@
       <c r="Z49" s="15"/>
       <c r="AA49" s="15"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -42848,7 +42865,7 @@
       <c r="Z50" s="15"/>
       <c r="AA50" s="15"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -42877,7 +42894,7 @@
       <c r="Z51" s="15"/>
       <c r="AA51" s="15"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -42906,7 +42923,7 @@
       <c r="Z52" s="15"/>
       <c r="AA52" s="15"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -42935,7 +42952,7 @@
       <c r="Z53" s="15"/>
       <c r="AA53" s="15"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -70472,9 +70489,12 @@
   </sheetPr>
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
